--- a/Files/Tables/Properties/Property table.xlsx
+++ b/Files/Tables/Properties/Property table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>This file will offer a good overview of the new properties and effects added by the mod</t>
   </si>
@@ -34,6 +34,123 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Mirrored Skin</t>
+  </si>
+  <si>
+    <t>Thorny Skin</t>
+  </si>
+  <si>
+    <t>Elemental Protection</t>
+  </si>
+  <si>
+    <t>Heavenly Embrace</t>
+  </si>
+  <si>
+    <t>Special Enchantment</t>
+  </si>
+  <si>
+    <t>Enchantment/Property</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>Stoneskin</t>
+  </si>
+  <si>
+    <t>Resists normal weapons by x%</t>
+  </si>
+  <si>
+    <t>Reflects magical damage by x%</t>
+  </si>
+  <si>
+    <t>Reflects melee damage by x%</t>
+  </si>
+  <si>
+    <t>Increases resistance against all elements by x%</t>
+  </si>
+  <si>
+    <t>Adds a x% chance of ignoring damage</t>
+  </si>
+  <si>
+    <t>Ebonyskin</t>
+  </si>
+  <si>
+    <t>Lone Wolf</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>When below the specified health threshold. Increases damage done and decreases damage received by x%</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Increase physical resistance by x%</t>
+  </si>
+  <si>
+    <t>Consuming magicka/stamina builds up a special meter...</t>
+  </si>
+  <si>
+    <t>Wizardry</t>
+  </si>
+  <si>
+    <t>Increases the potency of the spells of all scholls of magic and decreases the magicka necessary to cast them by x%</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>God Of war</t>
+  </si>
+  <si>
+    <t>Increases the damage of katanas by x%, decreases the stamina necessary to perform power attacks while wielding katanas by x%, increases the critical damage and critical multiplier while wielding katanas by x%. Finally, allows the use of special secret techiniques like the Counter Swing and Sakura Slash, see the specific file of the Samurai effect for further info</t>
+  </si>
+  <si>
+    <t>Grandmaster at arms</t>
+  </si>
+  <si>
+    <t>Rampage</t>
+  </si>
+  <si>
+    <t>Turns the user into the incarnation of war, increasing his combat prowess to the maximum and allowing the use special skills. see the specific file of the God of War effect for further info</t>
+  </si>
+  <si>
+    <t>Increases damage by x% after killing an enemy</t>
+  </si>
+  <si>
+    <t>Brawler</t>
+  </si>
+  <si>
+    <t>Melee damage and physical resistance is increased by x% the more enemies the user is fighting</t>
+  </si>
+  <si>
+    <t>Battle rhytm</t>
+  </si>
+  <si>
+    <t>Grants bonuses when starting combat, this bonuses wll increase their potency gradually the more time the battle takes, up to limit.Increases the speed and damage of melee attacks by x%, allows for easier parries and blocks, reduces the stamina drain rate and increases the speed while running with weapons sheated</t>
+  </si>
+  <si>
+    <t>Increases smithing skill by x%,increases the damage of all weapons by x%,decreases the stamina necessary to perform power attacks by x% and increases their damage by x%,blocks and non power bashes with the shield cost no stamina,increases the critical chance/damage and sneak multiplier for all weapons by x%. Also gives acess to special skills with each weapon type, go see the Grandmaster at arms file for further info</t>
+  </si>
+  <si>
+    <t>Marter Marksman</t>
+  </si>
+  <si>
+    <t>Increases the damage of ranged weapons by x%, allows for easier and more precise shots, all arrows and bolts can be retrieved from enemy corpses, briefly slows time during aiming down the sights</t>
+  </si>
+  <si>
+    <t>Increases attack,magical resistance and physical resistance when fighting alone</t>
+  </si>
+  <si>
+    <t>Decreases the time/magicka required to chanell spells and decreases the stamina consumption of power attacks by x%</t>
   </si>
 </sst>
 </file>
@@ -131,25 +248,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,51 +557,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Tables/Properties/Property table.xlsx
+++ b/Files/Tables/Properties/Property table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB9003E4-D166-4E9D-A910-75926D876362}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>This file will offer a good overview of the new properties and effects added by the mod</t>
   </si>
@@ -120,12 +121,6 @@
     <t>Rampage</t>
   </si>
   <si>
-    <t>Turns the user into the incarnation of war, increasing his combat prowess to the maximum and allowing the use special skills. see the specific file of the God of War effect for further info</t>
-  </si>
-  <si>
-    <t>Increases damage by x% after killing an enemy</t>
-  </si>
-  <si>
     <t>Brawler</t>
   </si>
   <si>
@@ -138,25 +133,74 @@
     <t>Grants bonuses when starting combat, this bonuses wll increase their potency gradually the more time the battle takes, up to limit.Increases the speed and damage of melee attacks by x%, allows for easier parries and blocks, reduces the stamina drain rate and increases the speed while running with weapons sheated</t>
   </si>
   <si>
-    <t>Increases smithing skill by x%,increases the damage of all weapons by x%,decreases the stamina necessary to perform power attacks by x% and increases their damage by x%,blocks and non power bashes with the shield cost no stamina,increases the critical chance/damage and sneak multiplier for all weapons by x%. Also gives acess to special skills with each weapon type, go see the Grandmaster at arms file for further info</t>
-  </si>
-  <si>
     <t>Marter Marksman</t>
   </si>
   <si>
-    <t>Increases the damage of ranged weapons by x%, allows for easier and more precise shots, all arrows and bolts can be retrieved from enemy corpses, briefly slows time during aiming down the sights</t>
-  </si>
-  <si>
     <t>Increases attack,magical resistance and physical resistance when fighting alone</t>
   </si>
   <si>
     <t>Decreases the time/magicka required to chanell spells and decreases the stamina consumption of power attacks by x%</t>
+  </si>
+  <si>
+    <t>Increases the damage of ranged weapons by x%, allows for easier and more precise shots, all arrows and bolts can be retrieved from enemy corpses, briefly slows time while aiming down the sights</t>
+  </si>
+  <si>
+    <t>Increases damage by x% after killing an enemy for x seconds</t>
+  </si>
+  <si>
+    <t>Unaffected</t>
+  </si>
+  <si>
+    <t>Knockback immunity, disarm immunity, stagger immunity and stun immunity all in one skill</t>
+  </si>
+  <si>
+    <t>Spirit of the Sword Singer</t>
+  </si>
+  <si>
+    <t>Bloodlust</t>
+  </si>
+  <si>
+    <t>Allows the user to restore x health points every time he bathes in the blood of his enemies</t>
+  </si>
+  <si>
+    <t>Elemental Shield</t>
+  </si>
+  <si>
+    <t>Fire Shield</t>
+  </si>
+  <si>
+    <t>While the shield is active, blocks x% of the damage done by all elements and radiates an aura tha deals x elemental damage to enemies nearby</t>
+  </si>
+  <si>
+    <t>While the shield is active, blocks x% of the damage done by the fire element and radiates an aura that deals x fire damage to enemies nearby</t>
+  </si>
+  <si>
+    <t>Increases smithing skill by x%,increases the damage of all weapons by x%,decreases the stamina necessary to perform power attacks by x% and increases their damage by x%,blocks and non power bashes with the shield cost no stamina,increases the critical chance/damage and sneak critical multiplier for all weapons by x%. Also gives acess to special skills with each weapon type, go see the Grandmaster at arms file for further info</t>
+  </si>
+  <si>
+    <t>Ice Shield</t>
+  </si>
+  <si>
+    <t>While the shield is active, blocks x% of the damage done by the ice element and radiates an aura that deals x ice damage to enemies nearby</t>
+  </si>
+  <si>
+    <t>Electric Shield</t>
+  </si>
+  <si>
+    <t>While the shield is active, blocks x% of the damage done by the electric element and radiates an aura that deals x shock damage to enemies nearby</t>
+  </si>
+  <si>
+    <t>Turns the user into the incarnation of war, increasing his combat prowess to the maximum and allowing the use special skills. See the specific file of the God of War effect for further info</t>
+  </si>
+  <si>
+    <t>This skill is oriented towards one handed sword users,  the conditions for the bonus to be applied are:if the user uses a shield on the secondary hand he must use a one handed sword as his primary weapon, if he is dual-wielding he must use two one handed swords, the user can also wield a single one handed sword, as long as he uses no other weapon in his secondary hand.Bound weapons can be used as long as one of the requirements are met
+Increases damage by x%, blocking normal attacks with the shield cost no stamina, parrying normal attacks cost no stamina, timed blocks and parries allows the chance to execute devasting counter attacks, increases the critical chance by x%, increases the critical damage by x, increases the sneak critical multiplier by x. Also gives Bloodlust,Battle Rhytm,Rampage,Brawler,Lone Wolf and Adrenaline. Finally, it enpowers the mind of the user and allows the use of ancient secret sword techniques, see the Spirit of the Sword Singer file for further info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,6 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -273,9 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,42 +600,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -601,206 +645,283 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>41</v>
+    </row>
+    <row r="26" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Tables/Properties/Property table.xlsx
+++ b/Files/Tables/Properties/Property table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB9003E4-D166-4E9D-A910-75926D876362}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A8F010A5-4AEF-4550-ABF2-3FBFE5217472}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>This file will offer a good overview of the new properties and effects added by the mod</t>
   </si>
@@ -106,15 +106,6 @@
     <t>Increases the potency of the spells of all scholls of magic and decreases the magicka necessary to cast them by x%</t>
   </si>
   <si>
-    <t>Samurai</t>
-  </si>
-  <si>
-    <t>God Of war</t>
-  </si>
-  <si>
-    <t>Increases the damage of katanas by x%, decreases the stamina necessary to perform power attacks while wielding katanas by x%, increases the critical damage and critical multiplier while wielding katanas by x%. Finally, allows the use of special secret techiniques like the Counter Swing and Sakura Slash, see the specific file of the Samurai effect for further info</t>
-  </si>
-  <si>
     <t>Grandmaster at arms</t>
   </si>
   <si>
@@ -133,18 +124,12 @@
     <t>Grants bonuses when starting combat, this bonuses wll increase their potency gradually the more time the battle takes, up to limit.Increases the speed and damage of melee attacks by x%, allows for easier parries and blocks, reduces the stamina drain rate and increases the speed while running with weapons sheated</t>
   </si>
   <si>
-    <t>Marter Marksman</t>
-  </si>
-  <si>
     <t>Increases attack,magical resistance and physical resistance when fighting alone</t>
   </si>
   <si>
     <t>Decreases the time/magicka required to chanell spells and decreases the stamina consumption of power attacks by x%</t>
   </si>
   <si>
-    <t>Increases the damage of ranged weapons by x%, allows for easier and more precise shots, all arrows and bolts can be retrieved from enemy corpses, briefly slows time while aiming down the sights</t>
-  </si>
-  <si>
     <t>Increases damage by x% after killing an enemy for x seconds</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>While the shield is active, blocks x% of the damage done by the fire element and radiates an aura that deals x fire damage to enemies nearby</t>
   </si>
   <si>
-    <t>Increases smithing skill by x%,increases the damage of all weapons by x%,decreases the stamina necessary to perform power attacks by x% and increases their damage by x%,blocks and non power bashes with the shield cost no stamina,increases the critical chance/damage and sneak critical multiplier for all weapons by x%. Also gives acess to special skills with each weapon type, go see the Grandmaster at arms file for further info</t>
-  </si>
-  <si>
     <t>Ice Shield</t>
   </si>
   <si>
@@ -190,19 +172,563 @@
     <t>While the shield is active, blocks x% of the damage done by the electric element and radiates an aura that deals x shock damage to enemies nearby</t>
   </si>
   <si>
-    <t>Turns the user into the incarnation of war, increasing his combat prowess to the maximum and allowing the use special skills. See the specific file of the God of War effect for further info</t>
-  </si>
-  <si>
-    <t>This skill is oriented towards one handed sword users,  the conditions for the bonus to be applied are:if the user uses a shield on the secondary hand he must use a one handed sword as his primary weapon, if he is dual-wielding he must use two one handed swords, the user can also wield a single one handed sword, as long as he uses no other weapon in his secondary hand.Bound weapons can be used as long as one of the requirements are met
-Increases damage by x%, blocking normal attacks with the shield cost no stamina, parrying normal attacks cost no stamina, timed blocks and parries allows the chance to execute devasting counter attacks, increases the critical chance by x%, increases the critical damage by x, increases the sneak critical multiplier by x. Also gives Bloodlust,Battle Rhytm,Rampage,Brawler,Lone Wolf and Adrenaline. Finally, it enpowers the mind of the user and allows the use of ancient secret sword techniques, see the Spirit of the Sword Singer file for further info</t>
+    <t>Blessing of The Black Knight</t>
+  </si>
+  <si>
+    <t>Akaviri Swordmaster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turns the user into the incarnation of war, increasing his combat prowess to the maximum and allowing the use special skills. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>See the specific file of The Blessing of the Black Knight</t>
+    </r>
+  </si>
+  <si>
+    <t>Master Marksman</t>
+  </si>
+  <si>
+    <t>Blademaster</t>
+  </si>
+  <si>
+    <t>Nightblade</t>
+  </si>
+  <si>
+    <t>Chameleon</t>
+  </si>
+  <si>
+    <t>Grants x% passive and unbreakable invisibility</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This skill is oriented towards one handed sword users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  the conditions for the bonus to be applied are:if the user uses a shield on the secondary hand he must use a one handed sword as his primary weapon, if he is dual-wielding he must use two one handed swords, the user can also wield a single one handed sword, as long as he uses no other weapon in his secondary hand.The bonuses are further increased and have extra special effects if the user is wielding a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shehai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Increases damage by x%, blocking normal attacks with the shield cost no stamina, parrying normal attacks cost no stamina, timed blocks and parries allows the chance to execute devasting counter attacks, increases the critical chance by x%, increases the critical damage by x, increases the sneak critical multiplier by x. Also gives </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bloodlust,Battle Rhytm,Rampage,Brawler,Lone Wolf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and Adrenaline.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Finally, it enpowers the mind of the user and allows the use of ancient secret sword techniques, see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spirit of the Sword Singer file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for further info</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skill oriented towards Katana users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Increases the damage of katanas by x%, decreases the stamina necessary to perform power attacks while wielding katanas by x%, increases the critical damage and critical multiplier while wielding katanas by x%. Finally, allows the use of special secret techiniques like the Counter Swing and Sakura Slash, see the specific file of the Samurai effect for further info</t>
+    </r>
+  </si>
+  <si>
+    <t>Siphoning Strikes</t>
+  </si>
+  <si>
+    <t>Spectral Shroud</t>
+  </si>
+  <si>
+    <t>After sucessfully killing a target while sneaking, the user vanishes from sight, quickly shifting to an alternate dimension and becoming completely undedectable and ethereal for x seconds</t>
+  </si>
+  <si>
+    <t>Shield Master</t>
+  </si>
+  <si>
+    <t>Blunt Force</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skill oriented towards blade users.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Increases the  damage of bladed weapons by x%, increases the critical chance of bladed weapons by x%, increases the critical damage of bladed weapons by x, increases the sneak critical multiplier of bladed weapons  by x. Also grants </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Batlle Rhytm, Focus and Brawler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> while wielding a bladed weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skill oriented towards shield users.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Blocking non power attacks cost no stamina, blocking power attacks no longer staggers and costs less stamina,half of the melee physical damage blocked by the shield of the user is reflected back to its attacker. Also grants </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unaffected and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elemental Protection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> while blocking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skill designed for assassins.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Increases critical chance by x%, increases critical damage by x, increases the sneak critical multiplier of all weapons by x. Also grants </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detect life,100% chameleon and Lone Wolf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> while sneaking</t>
+    </r>
+  </si>
+  <si>
+    <t>Weapon Handling</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skill oriented towards ranged weapon users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Increases the damage of ranged weapons by x%, allows for easier and more precise shots, all arrows and bolts can be retrieved from enemy corpses,increases critical chance by x%, increases critical damage by x, increases the sneak critical multiplier by x, briefly slows time while aiming down the sights and grants </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weapon Handling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> while wielding a ranged weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Master Marksman, Blademaster, Blunt Force, Nightblade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shield Master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all in one skill. Also gives acess to special skills with each weapon type, go see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grandmaster at arms file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for further info</t>
+    </r>
+  </si>
+  <si>
+    <t>Master of Defense</t>
+  </si>
+  <si>
+    <t>Physical damage done with melee weapons are imbued with soul stealing power,  restores  magicka, stamina and health based on a percentage of the damage done,  also gives soultrap and an x% chance to fear enemies with each sucessfull non blocked strike</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skill designed for blunt weapon users.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Increases the damage of blunt weapons by x%, increases the critical chance while wielding blunt weapons by x%, increases the critical damage of blunt weapons by x, increases the sneak critical multiplier of blunt weapons by x. Grants </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rampage,Adrenaline and Focus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> while wielding a blunt weapon</t>
+    </r>
+  </si>
+  <si>
+    <t>Increases sheathing/unshething speed of weapons by x% and also decreases the time to charge shots with ranged weapons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -601,15 +1127,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G32"/>
+  <dimension ref="B1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" bestFit="1" customWidth="1"/>
@@ -723,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -745,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -770,158 +1296,254 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="316.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Tables/Properties/Property table.xlsx
+++ b/Files/Tables/Properties/Property table.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A8F010A5-4AEF-4550-ABF2-3FBFE5217472}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>This file will offer a good overview of the new properties and effects added by the mod</t>
   </si>
@@ -662,12 +661,12 @@
     </r>
   </si>
   <si>
-    <t>Master of Defense</t>
-  </si>
-  <si>
     <t>Physical damage done with melee weapons are imbued with soul stealing power,  restores  magicka, stamina and health based on a percentage of the damage done,  also gives soultrap and an x% chance to fear enemies with each sucessfull non blocked strike</t>
   </si>
   <si>
+    <t>Increases sheathing/unshething speed of weapons by x% and also decreases the time to charge shots with ranged weapons</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -687,7 +686,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Increases the damage of blunt weapons by x%, increases the critical chance while wielding blunt weapons by x%, increases the critical damage of blunt weapons by x, increases the sneak critical multiplier of blunt weapons by x. Grants </t>
+      <t xml:space="preserve"> Increases the damage of blunt weapons by x%, increases the critical chance while wielding blunt weapons by x%, increases the critical damage of blunt weapons by x, increases the sneak critical multiplier of blunt weapons by x. Also grants </t>
     </r>
     <r>
       <rPr>
@@ -712,13 +711,78 @@
     </r>
   </si>
   <si>
-    <t>Increases sheathing/unshething speed of weapons by x% and also decreases the time to charge shots with ranged weapons</t>
+    <t>Daedric Protection</t>
+  </si>
+  <si>
+    <t>Increases physical and magical resistance by x% for every summoned unit under the control of the user</t>
+  </si>
+  <si>
+    <t>Eternal Cycle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Imbues the user with the influence of balance. Any spells casted within an radius of x units will restore the magicka of the user by x%, each enemy killed by magical damage will provide an energy shield that blocks x% of all the damage received, causing elemental damage to an enemy weakens his resistance to this respective element by x%, casting spells enpowers the essence of the user  gradually increasing the damage of all his spells and reducing their cost by x% up to a maximum,  Increases magicka and magicka regeneration by x% for every enemy the user is fighting. Finally grants x% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mirrored Skin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> everytime the user receives magical damage and x% </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thorny Skin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>everytime the user receives physical damage, the value of theses bonus scale accordinly to the type of damage received during the fight.</t>
+    </r>
+  </si>
+  <si>
+    <t>Silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severs the magicka flux of the targeted unit,blocking the use of any spells </t>
+  </si>
+  <si>
+    <t>Illusionist</t>
+  </si>
+  <si>
+    <t>Enpower illusion spells increasing their potency by x%, reduces the magicka necessary to cast illusion spells by x%, enemies that hit the user with physical damage have an x% of receiveing either fear or frenzy, enemies that hit the user with magical damage have an x% chance of receiving silence. Finally, when the user drops below 25% health, he vanishes,becoming ethereal for x seconds and leaving 2 illusionary decoys to distract enemies for x seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,23 +1190,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1216,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1160,8 +1224,8 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1175,7 +1239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +1261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1241,7 +1305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1263,7 +1327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1285,7 +1349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1296,7 +1360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1307,7 +1371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1318,7 +1382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1329,7 +1393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1362,7 +1426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="150" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1373,7 +1437,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="375" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
@@ -1395,7 +1459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1406,7 +1470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1417,7 +1481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
@@ -1428,7 +1492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
@@ -1439,7 +1503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -1450,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1461,7 +1525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
@@ -1472,7 +1536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>55</v>
       </c>
@@ -1483,7 +1547,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
@@ -1494,7 +1558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
@@ -1502,10 +1566,10 @@
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
@@ -1516,7 +1580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
@@ -1527,7 +1591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>68</v>
       </c>
@@ -1535,15 +1599,48 @@
         <v>11</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Tables/Properties/Property table.xlsx
+++ b/Files/Tables/Properties/Property table.xlsx
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
